--- a/Tests/Ontlaad data.xlsx
+++ b/Tests/Ontlaad data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Eleke 5 minuten volt meten</t>
   </si>
@@ -33,20 +33,25 @@
   <si>
     <t xml:space="preserve">Per 30 secs</t>
   </si>
+  <si>
+    <t xml:space="preserve">opnieuw beginnen na week</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -106,12 +111,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,1501 +149,3680 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:C511"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B447" activeCellId="0" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>0.583333333319445</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>0.617013888888889</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>52.71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>0.617361111097222</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>52.65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>0.617708333305556</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>52.62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>0.618055555513889</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>52.58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>0.618402777722222</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>52.57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>0.618749999930556</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>52.54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>0.619097222138889</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>52.52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>0.619444444347222</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>52.49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>0.619791666555556</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>52.46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>0.620138888763889</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>52.43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>0.620486110972222</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>52.41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>0.620833333180556</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>52.38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>0.621180555388889</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>52.35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>0.621527777597222</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>52.33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>0.621874999805556</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>52.31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>0.622222222013889</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>52.28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>0.622569444222222</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>52.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>0.622916666430556</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>52.23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>0.623263888638889</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>52.2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>0.623611110847222</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>52.18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>0.623958333055556</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>52.15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>0.624305555263889</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>52.14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>0.624652777472222</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>52.11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>0.624999999680556</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>52.08</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>0.625347221888889</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>52.05</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>0.625694444097222</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>52.03</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>0.626041666305556</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>52.01</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>0.626388888513889</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>51.99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>0.626736110722222</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>51.97</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>0.627083332930556</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>51.95</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>0.627430555138889</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>51.92</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>0.627777777347222</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>51.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>0.628124999555556</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>51.87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>0.628472221763889</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>51.85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>0.628819443972222</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>51.83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>0.629166666180556</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>51.8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>0.629513888388889</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>51.78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>0.629861110597222</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>51.75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>0.630208332805556</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>51.74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>0.630555555013889</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>51.72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>0.630902777222222</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>51.69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>0.631249999430556</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>51.67</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>0.631597221638889</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>51.65</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>0.631944443847222</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>51.63</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>0.632291666055556</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>51.61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>0.632638888263889</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>51.6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>0.632986110472222</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>51.57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>0.633333332680556</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>51.55</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>0.633680554888889</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>51.53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>0.634027777097222</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>51.51</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>0.634374999305556</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>51.47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>0.634722221513889</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>51.45</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>0.635069443722222</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>51.44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>0.635416665930556</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>51.42</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>0.635763888138889</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>51.38</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>0.636111110347222</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>51.37</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>0.636458332555556</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>51.34</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>0.636805554763889</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>51.33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>0.637152776972222</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>51.31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>0.637499999180556</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>51.3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>0.637847221388889</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>51.27</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>0.638194443597222</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>51.24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>0.638541665805556</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>51.22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>0.638888888013889</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>51.21</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>0.639236110222222</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>51.19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>0.639583332430556</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>51.17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>0.639930554638889</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>51.15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>0.640277776847222</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>51.13</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>0.640624999055556</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>51.08</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>0.640972221263889</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>51.06</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>0.641319443472222</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>51.03</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>0.641666665680556</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>51.02</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>0.642013887888889</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>0.642361110097222</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>50.98</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>0.642708332305556</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>50.96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>0.643055554513889</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>50.94</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>0.643402776722222</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>50.91</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>0.643749998930556</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>50.89</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>0.644097221138889</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>50.87</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>0.644444443347222</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>50.85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>0.644791665555556</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>50.83</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>0.645138887763889</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>50.81</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>0.645486109972222</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>50.78</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>0.645833332180556</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>50.76</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>0.646180554388889</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>50.74</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>0.646527776597222</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>50.72</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>0.646874998805556</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>50.69</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>0.647222221013889</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>50.67</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>0.647569443222222</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>50.65</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>0.647916665430556</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>50.63</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>0.648263887638889</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>50.61</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>0.648611109847222</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>50.59</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>0.648958332055556</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>50.56</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>0.649305554263889</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>50.53</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>0.649652776472222</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>50.52</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>0.649999998680556</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>50.5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>0.650347220888889</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>50.48</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>0.650694443097222</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>50.46</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>0.651041665305556</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>50.43</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>0.651388887513889</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>50.41</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>0.651736109722222</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>50.38</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>0.652083331930556</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>50.36</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>0.652430554138889</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>50.34</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>0.652777776347222</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>50.32</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>0.653124998555556</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>50.3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>0.653472220763889</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>50.28</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>0.653819442972222</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>50.26</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>0.654166665180556</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>50.25</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>0.654513887388889</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>50.24</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>0.654861109597222</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>50.22</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>0.655208331805556</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>50.19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>0.655555554013889</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>50.17</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>0.655902776222222</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>50.16</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>0.656249998430556</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>50.13</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>0.656597220638889</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>50.09</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>0.656944442847222</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>50.08</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>0.657291665055556</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>50.06</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>0.657638887263889</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>50.04</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>0.657986109472222</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>50.02</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>0.658333331680556</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>0.658680553888889</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>49.98</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>0.659027776097222</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>49.96</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>0.659374998305556</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>49.94</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>0.659722220513889</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>49.92</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>0.660069442722222</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>49.89</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>0.660416664930556</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>49.87</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>0.660763887138889</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>49.85</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>0.661111109347222</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>49.83</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>0.661458331555556</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>49.8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>0.661805553763889</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>49.78</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>0.662152775972222</v>
       </c>
+      <c r="B137" s="0" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>0.662499998180556</v>
       </c>
+      <c r="B138" s="0" t="n">
+        <v>50.16</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>0.662847220388889</v>
       </c>
+      <c r="B139" s="0" t="n">
+        <v>50.06</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>0.663194442597222</v>
       </c>
+      <c r="B140" s="0" t="n">
+        <v>49.96</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>0.663541664805556</v>
       </c>
+      <c r="B141" s="0" t="n">
+        <v>49.9</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>0.663888887013889</v>
       </c>
+      <c r="B142" s="0" t="n">
+        <v>49.83</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>0.664236109222222</v>
       </c>
+      <c r="B143" s="0" t="n">
+        <v>49.78</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>0.664583331430556</v>
       </c>
+      <c r="B144" s="0" t="n">
+        <v>49.72</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>0.664930553638889</v>
       </c>
+      <c r="B145" s="0" t="n">
+        <v>49.68</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>0.665277775847222</v>
       </c>
+      <c r="B146" s="0" t="n">
+        <v>49.64</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>0.665624998055556</v>
       </c>
+      <c r="B147" s="0" t="n">
+        <v>49.59</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>0.665972220263889</v>
       </c>
+      <c r="B148" s="0" t="n">
+        <v>49.56</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>0.666319442472222</v>
       </c>
+      <c r="B149" s="0" t="n">
+        <v>49.51</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>0.666666664680556</v>
       </c>
+      <c r="B150" s="0" t="n">
+        <v>49.49</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>0.667013886888889</v>
       </c>
+      <c r="B151" s="0" t="n">
+        <v>49.48</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>0.667361109097222</v>
       </c>
+      <c r="B152" s="0" t="n">
+        <v>49.48</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>0.667708331305556</v>
       </c>
+      <c r="B153" s="0" t="n">
+        <v>49.46</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>0.668055553513889</v>
       </c>
+      <c r="B154" s="0" t="n">
+        <v>49.43</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>0.668402775722222</v>
       </c>
+      <c r="B155" s="0" t="n">
+        <v>49.41</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>0.668749997930556</v>
       </c>
+      <c r="B156" s="0" t="n">
+        <v>49.39</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>0.669097220138889</v>
       </c>
+      <c r="B157" s="0" t="n">
+        <v>49.36</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>0.669444442347222</v>
       </c>
+      <c r="B158" s="0" t="n">
+        <v>49.34</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>0.669791664555556</v>
       </c>
+      <c r="B159" s="0" t="n">
+        <v>49.31</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>0.670138886763889</v>
       </c>
+      <c r="B160" s="0" t="n">
+        <v>49.29</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>0.670486108972222</v>
       </c>
+      <c r="B161" s="0" t="n">
+        <v>49.27</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>0.670833331180556</v>
       </c>
+      <c r="B162" s="0" t="n">
+        <v>49.24</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>0.671180553388889</v>
       </c>
+      <c r="B163" s="0" t="n">
+        <v>49.22</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>0.671527775597222</v>
       </c>
+      <c r="B164" s="0" t="n">
+        <v>49.2</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>0.671874997805556</v>
       </c>
+      <c r="B165" s="0" t="n">
+        <v>49.18</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>0.672222220013889</v>
       </c>
+      <c r="B166" s="0" t="n">
+        <v>49.15</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>0.672569442222222</v>
       </c>
+      <c r="B167" s="0" t="n">
+        <v>49.13</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>0.672916664430556</v>
       </c>
+      <c r="B168" s="0" t="n">
+        <v>49.11</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>0.673263886638889</v>
       </c>
+      <c r="B169" s="0" t="n">
+        <v>49.09</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>0.673611108847222</v>
       </c>
+      <c r="B170" s="0" t="n">
+        <v>49.07</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>0.673958331055556</v>
       </c>
+      <c r="B171" s="0" t="n">
+        <v>49.05</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>0.674305553263889</v>
       </c>
+      <c r="B172" s="0" t="n">
+        <v>49.03</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>0.674652775472222</v>
       </c>
+      <c r="B173" s="0" t="n">
+        <v>49.01</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>0.674999997680556</v>
       </c>
+      <c r="B174" s="0" t="n">
+        <v>48.99</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>0.675347219888889</v>
       </c>
+      <c r="B175" s="0" t="n">
+        <v>48.96</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>0.675694442097222</v>
       </c>
+      <c r="B176" s="0" t="n">
+        <v>48.94</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>0.676041664305556</v>
       </c>
+      <c r="B177" s="0" t="n">
+        <v>48.93</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>0.676388886513889</v>
       </c>
+      <c r="B178" s="0" t="n">
+        <v>48.91</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>0.676736108722222</v>
       </c>
+      <c r="B179" s="0" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>0.677083330930556</v>
       </c>
+      <c r="B180" s="0" t="n">
+        <v>48.87</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>0.677430553138889</v>
       </c>
+      <c r="B181" s="0" t="n">
+        <v>48.85</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>0.677777775347222</v>
       </c>
+      <c r="B182" s="0" t="n">
+        <v>48.83</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>0.678124997555556</v>
       </c>
+      <c r="B183" s="0" t="n">
+        <v>48.81</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>0.678472219763889</v>
       </c>
+      <c r="B184" s="0" t="n">
+        <v>48.79</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>0.678819441972222</v>
       </c>
+      <c r="B185" s="0" t="n">
+        <v>48.78</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>0.679166664180556</v>
       </c>
+      <c r="B186" s="0" t="n">
+        <v>48.76</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>0.679513886388889</v>
       </c>
+      <c r="B187" s="0" t="n">
+        <v>48.74</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>0.679861108597222</v>
       </c>
+      <c r="B188" s="0" t="n">
+        <v>48.72</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>0.680208330805556</v>
       </c>
+      <c r="B189" s="0" t="n">
+        <v>48.71</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>0.680555553013889</v>
       </c>
+      <c r="B190" s="0" t="n">
+        <v>48.69</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>0.680902775222222</v>
       </c>
+      <c r="B191" s="0" t="n">
+        <v>48.67</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>0.681249997430556</v>
       </c>
+      <c r="B192" s="0" t="n">
+        <v>48.65</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>0.681597219638889</v>
       </c>
+      <c r="B193" s="0" t="n">
+        <v>48.64</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>0.681944441847222</v>
       </c>
+      <c r="B194" s="0" t="n">
+        <v>48.62</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>0.682291664055556</v>
       </c>
+      <c r="B195" s="0" t="n">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>0.682638886263889</v>
       </c>
+      <c r="B196" s="0" t="n">
+        <v>48.59</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>0.682986108472222</v>
       </c>
+      <c r="B197" s="0" t="n">
+        <v>48.57</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>0.683333330680556</v>
       </c>
+      <c r="B198" s="0" t="n">
+        <v>48.56</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>0.683680552888889</v>
       </c>
+      <c r="B199" s="0" t="n">
+        <v>48.54</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>0.684027775097222</v>
       </c>
+      <c r="B200" s="0" t="n">
+        <v>48.52</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>0.684374997305556</v>
       </c>
+      <c r="B201" s="0" t="n">
+        <v>58.51</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>0.684722219513889</v>
       </c>
+      <c r="B202" s="0" t="n">
+        <v>58.49</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>0.685069441722222</v>
       </c>
+      <c r="B203" s="0" t="n">
+        <v>58.47</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>0.685416663930556</v>
       </c>
+      <c r="B204" s="0" t="n">
+        <v>58.46</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>0.685763886138889</v>
       </c>
+      <c r="B205" s="0" t="n">
+        <v>48.44</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>0.686111108347222</v>
       </c>
+      <c r="B206" s="0" t="n">
+        <v>48.43</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>0.686458330555556</v>
       </c>
+      <c r="B207" s="0" t="n">
+        <v>48.41</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>0.686805552763889</v>
       </c>
+      <c r="B208" s="0" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>0.687152774972222</v>
       </c>
+      <c r="B209" s="0" t="n">
+        <v>48.38</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>0.687499997180556</v>
       </c>
+      <c r="B210" s="0" t="n">
+        <v>48.37</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>0.687847219388889</v>
       </c>
+      <c r="B211" s="0" t="n">
+        <v>48.35</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>0.688194441597222</v>
       </c>
+      <c r="B212" s="0" t="n">
+        <v>48.34</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>0.688541663805556</v>
       </c>
+      <c r="B213" s="0" t="n">
+        <v>48.32</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="2" t="n">
         <v>0.688888886013889</v>
       </c>
+      <c r="B214" s="0" t="n">
+        <v>48.31</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="2" t="n">
         <v>0.689236108222222</v>
       </c>
+      <c r="B215" s="0" t="n">
+        <v>48.29</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="2" t="n">
         <v>0.689583330430556</v>
       </c>
+      <c r="B216" s="0" t="n">
+        <v>48.28</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="2" t="n">
         <v>0.689930552638889</v>
       </c>
+      <c r="B217" s="0" t="n">
+        <v>48.26</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="2" t="n">
         <v>0.690277774847222</v>
       </c>
+      <c r="B218" s="0" t="n">
+        <v>48.25</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="2" t="n">
         <v>0.690624997055556</v>
       </c>
+      <c r="B219" s="0" t="n">
+        <v>48.24</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="2" t="n">
         <v>0.690972219263889</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
+        <v>0.691319441472222</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>48.21</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
+        <v>0.691666663680556</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>48.19</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
+        <v>0.692013885888889</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>48.18</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
+        <v>0.692361108097222</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>48.17</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
+        <v>0.692708330305556</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>48.15</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
+        <v>0.693055552513889</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
+        <v>0.693402774722222</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>48.13</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
+        <v>0.693749996930556</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
+        <v>0.694097219138889</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
+        <v>0.694444441347222</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>48.09</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
+        <v>0.694791663555556</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
+        <v>0.695138885763889</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>48.06</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
+        <v>0.695486107972222</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>48.05</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
+        <v>0.695833330180556</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
+        <v>0.696180552388889</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>48.02</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
+        <v>0.696527774597222</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>48.01</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
+        <v>0.696874996805556</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
+        <v>0.697222219013889</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
+        <v>0.697569441222222</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>47.97</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
+        <v>0.697916663430556</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>47.95</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
+        <v>0.698263885638889</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>47.94</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
+        <v>0.698611107847222</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
+        <v>0.698958330055556</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
+        <v>0.699305552263889</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
+        <v>0.699652774472222</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>47.89</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
+        <v>0.699999996680556</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>47.88</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
+        <v>0.700347218888889</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>47.87</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
+        <v>0.700694441097222</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
+        <v>0.701041663305556</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
+        <v>0.701388885513889</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>47.83</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
+        <v>0.701736107722222</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>47.81</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
+        <v>0.702083329930556</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
+        <v>0.702430552138889</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
+        <v>0.702777774347222</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
+        <v>0.703124996555556</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>47.76</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
+        <v>0.703472218763889</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
+        <v>0.703819440972222</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>47.74</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
+        <v>0.704166663180556</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
+        <v>0.704513885388889</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
+        <v>0.704861107597222</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>47.69</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
+        <v>0.705208329805556</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>47.68</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
+        <v>0.705555552013889</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>47.66</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
+        <v>0.705902774222222</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>47.65</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
+        <v>0.706249996430556</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
+        <v>0.706597218638889</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
+        <v>0.706944440847222</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>47.62</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
+        <v>0.707291663055556</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>47.61</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
+        <v>0.707638885263889</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
+        <v>0.707986107472222</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>47.58</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
+        <v>0.708333329680556</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
+        <v>0.708680551888889</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>47.56</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
+        <v>0.709027774097222</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
+        <v>0.709374996305556</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
+        <v>0.709722218513889</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>47.54</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
+        <v>0.710069440722222</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="C275" s="4"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
+        <v>0.710416662930556</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>47.52</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
+        <v>0.710763885138889</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C277" s="4"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
+        <v>0.711111107347222</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>47.49</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
+        <v>0.711458329555556</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>47.48</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
+        <v>0.711805551763889</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>47.47</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
+        <v>0.712152773972222</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>47.46</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
+        <v>0.712499996180556</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>47.45</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
+        <v>0.712847218388889</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>47.44</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
+        <v>0.713194440597222</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>47.43</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
+        <v>0.713541662805556</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>47.42</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
+        <v>0.713888885013889</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
+        <v>0.714236107222222</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
+        <v>0.714583329430556</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>47.38</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
+        <v>0.714930551638889</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
+        <v>0.715277773847222</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>47.35</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
+        <v>0.715624996055556</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>47.34</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
+        <v>0.715972218263889</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
+        <v>0.716319440472222</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
+        <v>0.716666662680556</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>47.31</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
+        <v>0.717013884888889</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
+        <v>0.717361107097222</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>47.29</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
+        <v>0.717708329305556</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>47.28</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
+        <v>0.718055551513889</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>47.26</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
+        <v>0.718402773722222</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
+        <v>0.718749995930556</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>47.24</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
+        <v>0.719097218138889</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
+        <v>0.719444440347222</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
+        <v>0.719791662555556</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>47.21</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
+        <v>0.720138884763889</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>47.19</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
+        <v>0.720486106972222</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>47.18</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
+        <v>0.720833329180556</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>47.17</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
+        <v>0.721180551388889</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>47.16</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
+        <v>0.721527773597222</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
+        <v>0.721874995805556</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>47.14</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
+        <v>0.722222218013889</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>47.12</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
+        <v>0.722569440222222</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>47.11</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
+        <v>0.722916662430556</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
+        <v>0.723263884638889</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
+        <v>0.723611106847222</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>47.08</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
+        <v>0.723958329055556</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>47.07</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
+        <v>0.724305551263889</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>47.05</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
+        <v>0.724652773472222</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>47.04</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
+        <v>0.724999995680556</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>47.03</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
+        <v>0.725347217888889</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>47.02</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
+        <v>0.725694440097222</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
+        <v>0.726041662305556</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
+        <v>0.726388884513889</v>
+      </c>
+      <c r="B322" s="0" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
+        <v>0.726736106722222</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
+        <v>0.727083328930556</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
+        <v>0.727430551138889</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
+        <v>0.727777773347222</v>
+      </c>
+      <c r="B326" s="0" t="n">
+        <v>46.94</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
+        <v>0.728124995555556</v>
+      </c>
+      <c r="B327" s="0" t="n">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
+        <v>0.728472217763889</v>
+      </c>
+      <c r="B328" s="0" t="n">
+        <v>46.91</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
+        <v>0.728819439972222</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
+        <v>0.729166662180556</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>46.89</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
+        <v>0.729513884388889</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>46.88</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
+        <v>0.729861106597222</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>46.86</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
+        <v>0.730208328805556</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>46.85</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
+        <v>0.730555551013889</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>46.84</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
+        <v>0.730902773222222</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>46.82</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
+        <v>0.731249995430556</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>46.81</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
+        <v>0.731597217638889</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
+        <v>0.731944439847222</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>46.79</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
+        <v>0.732291662055556</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>46.78</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
+        <v>0.732638884263889</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>46.77</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
+        <v>0.732986106472222</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>46.76</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
+        <v>0.733333328680556</v>
+      </c>
+      <c r="B342" s="0" t="n">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
+        <v>0.733680550888889</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>46.74</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
+        <v>0.734027773097222</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>46.73</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
+        <v>0.734374995305556</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>46.71</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
+        <v>0.734722217513889</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
+        <v>0.735069439722222</v>
+      </c>
+      <c r="B347" s="0" t="n">
+        <v>46.69</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
+        <v>0.735416661930556</v>
+      </c>
+      <c r="B348" s="0" t="n">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
+        <v>0.735763884138889</v>
+      </c>
+      <c r="B349" s="0" t="n">
+        <v>46.67</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
+        <v>0.736111106347222</v>
+      </c>
+      <c r="B350" s="0" t="n">
+        <v>46.66</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
+        <v>0.736458328555556</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <v>46.66</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
+        <v>0.736805550763889</v>
+      </c>
+      <c r="B352" s="0" t="n">
+        <v>46.65</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
+        <v>0.737152772972222</v>
+      </c>
+      <c r="B353" s="0" t="n">
+        <v>46.63</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
+        <v>0.737499995180556</v>
+      </c>
+      <c r="B354" s="0" t="n">
+        <v>46.62</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="n">
+        <v>0.737847217388889</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
+        <v>0.738194439597222</v>
+      </c>
+      <c r="B356" s="0" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>0.738541661805556</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>46.59</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>0.738888884013889</v>
+      </c>
+      <c r="B358" s="0" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>0.739236106222222</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>46.56</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>0.739583328430556</v>
+      </c>
+      <c r="B360" s="0" t="n">
+        <v>46.54</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>0.739930550638889</v>
+      </c>
+      <c r="B361" s="0" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>0.740277772847222</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <v>46.52</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>0.740624995055556</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>46.51</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>0.740972217263889</v>
+      </c>
+      <c r="B364" s="0" t="n">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>0.741319439472222</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>46.49</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
+        <v>0.741666661680556</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <v>46.48</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="n">
+        <v>0.742013883888889</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="n">
+        <v>0.742361106097222</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="n">
+        <v>0.742708328305556</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="n">
+        <v>0.743055550513889</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="n">
+        <v>0.743402772722222</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="n">
+        <v>0.743749994930556</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="n">
+        <v>0.744097217138889</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="n">
+        <v>0.744444439347222</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="n">
+        <v>0.744791661555556</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="n">
+        <v>0.745138883763889</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="n">
+        <v>0.745486105972222</v>
+      </c>
+      <c r="B377" s="0" t="n">
+        <v>46.39</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="n">
+        <v>0.745833328180556</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="n">
+        <v>0.746180550388889</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="n">
+        <v>0.746527772597222</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="n">
+        <v>0.746874994805556</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="n">
+        <v>0.747222217013889</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="n">
+        <v>0.747569439222222</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="n">
+        <v>0.747916661430556</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="n">
+        <v>0.748263883638889</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="n">
+        <v>0.748611105847222</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="n">
+        <v>0.748958328055556</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="n">
+        <v>0.749305550263889</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="n">
+        <v>0.749652772472222</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="n">
+        <v>0.749999994680556</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="n">
+        <v>0.750347216888889</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="n">
+        <v>0.750694439097222</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="2" t="n">
+        <v>0.751041661305556</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="n">
+        <v>0.751388883513889</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="2" t="n">
+        <v>0.751736105722222</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2" t="n">
+        <v>0.752083327930556</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="n">
+        <v>0.752430550138889</v>
+      </c>
+      <c r="B397" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="n">
+        <v>0.752777772347222</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="2" t="n">
+        <v>0.753124994555556</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="n">
+        <v>0.753472216763889</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="2" t="n">
+        <v>0.753819438972222</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="2" t="n">
+        <v>0.754166661180556</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="n">
+        <v>0.754513883388889</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="n">
+        <v>0.754861105597222</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="n">
+        <v>0.755208327805556</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="n">
+        <v>0.755555550013889</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="n">
+        <v>0.755902772222222</v>
+      </c>
+      <c r="B407" s="0" t="n">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="n">
+        <v>0.756249994430556</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <v>0.756597216638889</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <v>0.756944438847222</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <v>0.757291661055556</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <v>0.757638883263889</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <v>0.757986105472222</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <v>0.758333327680556</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <v>0.758680549888889</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <v>0.759027772097222</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <v>0.759374994305556</v>
+      </c>
+      <c r="B417" s="0" t="n">
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="n">
+        <v>0.759722216513889</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="2" t="n">
+        <v>0.760069438722222</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="n">
+        <v>0.760416660930556</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="n">
+        <v>0.760763883138889</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="n">
+        <v>0.761111105347222</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="n">
+        <v>0.761458327555556</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="n">
+        <v>0.761805549763889</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="n">
+        <v>0.762152771972222</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="n">
+        <v>0.762499994180556</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="n">
+        <v>0.762847216388889</v>
+      </c>
+      <c r="B427" s="0" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="n">
+        <v>0.763194438597222</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="n">
+        <v>0.763541660805556</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="2" t="n">
+        <v>0.763888883013889</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="n">
+        <v>0.764236105222222</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="n">
+        <v>0.764583327430556</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="n">
+        <v>0.764930549638889</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="n">
+        <v>0.765277771847222</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="n">
+        <v>0.765624994055556</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="2" t="n">
+        <v>0.765972216263889</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="2" t="n">
+        <v>0.766319438472222</v>
+      </c>
+      <c r="B437" s="0" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="n">
+        <v>0.766666660680556</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="2" t="n">
+        <v>0.767013882888889</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="2" t="n">
+        <v>0.767361105097222</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="n">
+        <v>0.767708327305556</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2" t="n">
+        <v>0.768055549513889</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="2" t="n">
+        <v>0.768402771722222</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="2" t="n">
+        <v>0.768749993930556</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="2" t="n">
+        <v>0.769097216138889</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="2" t="n">
+        <v>0.769444438347222</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="2" t="n">
+        <v>0.769791660555556</v>
+      </c>
+      <c r="B447" s="0" t="n">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="2" t="n">
+        <v>0.770138882763889</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="2" t="n">
+        <v>0.770486104972222</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="2" t="n">
+        <v>0.770833327180556</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="2" t="n">
+        <v>0.771180549388889</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="2" t="n">
+        <v>0.771527771597222</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="2" t="n">
+        <v>0.771874993805556</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="2" t="n">
+        <v>0.772222216013889</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="2" t="n">
+        <v>0.772569438222222</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="2" t="n">
+        <v>0.772916660430556</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="2" t="n">
+        <v>0.773263882638889</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="2" t="n">
+        <v>0.773611104847222</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="2" t="n">
+        <v>0.773958327055556</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="2" t="n">
+        <v>0.774305549263889</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="2" t="n">
+        <v>0.774652771472222</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="2" t="n">
+        <v>0.774999993680556</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="2" t="n">
+        <v>0.775347215888889</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="2" t="n">
+        <v>0.775694438097222</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="2" t="n">
+        <v>0.776041660305556</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="2" t="n">
+        <v>0.776388882513889</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="2" t="n">
+        <v>0.776736104722222</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="2" t="n">
+        <v>0.777083326930556</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="2" t="n">
+        <v>0.777430549138889</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="2" t="n">
+        <v>0.777777771347222</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="2" t="n">
+        <v>0.778124993555556</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="2" t="n">
+        <v>0.778472215763889</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="2" t="n">
+        <v>0.778819437972222</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="2" t="n">
+        <v>0.779166660180556</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="2" t="n">
+        <v>0.779513882388889</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="2" t="n">
+        <v>0.779861104597222</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="2" t="n">
+        <v>0.780208326805556</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="2" t="n">
+        <v>0.780555549013889</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="2" t="n">
+        <v>0.780902771222222</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="2" t="n">
+        <v>0.781249993430556</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="2" t="n">
+        <v>0.781597215638889</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="2" t="n">
+        <v>0.781944437847222</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="2" t="n">
+        <v>0.782291660055556</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="2" t="n">
+        <v>0.782638882263889</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="2" t="n">
+        <v>0.782986104472222</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="2" t="n">
+        <v>0.783333326680556</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="2" t="n">
+        <v>0.783680548888889</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="2" t="n">
+        <v>0.784027771097222</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="2" t="n">
+        <v>0.784374993305556</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="2" t="n">
+        <v>0.784722215513889</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="2" t="n">
+        <v>0.785069437722222</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="2" t="n">
+        <v>0.785416659930556</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="2" t="n">
+        <v>0.785763882138889</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="2" t="n">
+        <v>0.786111104347222</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="2" t="n">
+        <v>0.786458326555556</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="2" t="n">
+        <v>0.786805548763889</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="2" t="n">
+        <v>0.787152770972222</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="2" t="n">
+        <v>0.787499993180556</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="2" t="n">
+        <v>0.787847215388889</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="2" t="n">
+        <v>0.788194437597222</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="2" t="n">
+        <v>0.788541659805556</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="2" t="n">
+        <v>0.788888882013889</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="2" t="n">
+        <v>0.789236104222222</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="2" t="n">
+        <v>0.789583326430556</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="2" t="n">
+        <v>0.789930548638889</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="2" t="n">
+        <v>0.790277770847222</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="2" t="n">
+        <v>0.790624993055556</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="n">
+        <v>0.790972215263889</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="n">
+        <v>0.791319437472222</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="n">
+        <v>0.791666659680556</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="2" t="n">
+        <v>0.792013881888889</v>
       </c>
     </row>
   </sheetData>
